--- a/actual_schedule/schedule.xlsx
+++ b/actual_schedule/schedule.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
   <si>
     <t>id</t>
   </si>
@@ -195,18 +195,6 @@
   </si>
   <si>
     <t>2.08</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>30.07</t>
-  </si>
-  <si>
-    <t>23:30</t>
-  </si>
-  <si>
-    <t>2:00</t>
   </si>
 </sst>
 </file>
@@ -542,7 +530,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -870,26 +858,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
